--- a/public/static/file/importExcel/弱覆盖_信息_导出_文件_dengqian.xlsx
+++ b/public/static/file/importExcel/弱覆盖_信息_导出_文件_dengqian.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16620" tabRatio="500"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="25600" windowHeight="20480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="弱覆盖统计" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="131">
+  <si>
+    <t>弱覆盖ID</t>
+  </si>
   <si>
     <t>城市</t>
   </si>
@@ -62,88 +65,361 @@
     <t>运营商</t>
   </si>
   <si>
+    <t>网络类型</t>
+  </si>
+  <si>
+    <t>上传</t>
+  </si>
+  <si>
     <t>手机号</t>
   </si>
   <si>
+    <t>部门</t>
+  </si>
+  <si>
+    <t>采集时间</t>
+  </si>
+  <si>
     <t>手机型号</t>
   </si>
   <si>
-    <t>采集时间</t>
-  </si>
-  <si>
     <t>解决状态</t>
   </si>
   <si>
     <t>解决时间</t>
   </si>
   <si>
+    <t>预建站点名称</t>
+  </si>
+  <si>
+    <t>建站位置地址</t>
+  </si>
+  <si>
+    <t>网络制式</t>
+  </si>
+  <si>
+    <t>站点属性</t>
+  </si>
+  <si>
+    <t>建设类型</t>
+  </si>
+  <si>
+    <t>需求小区数</t>
+  </si>
+  <si>
+    <t>是否通过联席会</t>
+  </si>
+  <si>
+    <t>负责人</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>上报时间</t>
+  </si>
+  <si>
+    <t>确认点eci</t>
+  </si>
+  <si>
+    <t>确认点tac</t>
+  </si>
+  <si>
+    <t>确认点信号强度</t>
+  </si>
+  <si>
+    <t>确认点网络类型</t>
+  </si>
+  <si>
+    <t>确认点经度</t>
+  </si>
+  <si>
+    <t>确认点纬度</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>黔东南</t>
   </si>
   <si>
+    <t>锦屏县</t>
+  </si>
+  <si>
+    <t>农村</t>
+  </si>
+  <si>
+    <t>行政村</t>
+  </si>
+  <si>
+    <t>中国移动</t>
+  </si>
+  <si>
+    <t>4G</t>
+  </si>
+  <si>
+    <t>黔东南分公司/锦屏县公司</t>
+  </si>
+  <si>
+    <t>未处理</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>015bf136-e548-455d-9531-fe8b72a45c4b</t>
+  </si>
+  <si>
     <t>黄平县</t>
   </si>
   <si>
     <t>黄平县大碾房村白土寨</t>
   </si>
   <si>
-    <t>农村</t>
-  </si>
-  <si>
     <t>村寨</t>
   </si>
   <si>
-    <t>107.703218</t>
-  </si>
-  <si>
-    <t>26.986032)</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>中国移动</t>
-  </si>
-  <si>
-    <t>潘石13508550345</t>
+    <t>潘石</t>
+  </si>
+  <si>
+    <t>13508550345</t>
+  </si>
+  <si>
+    <t>黔东南分公司/黄平县公司</t>
+  </si>
+  <si>
+    <t>2018-05-29</t>
   </si>
   <si>
     <t>安卓</t>
   </si>
   <si>
-    <t>2018-05-29</t>
-  </si>
-  <si>
     <t>已受理</t>
   </si>
   <si>
-    <t>锦屏县</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t>5HP-黄平洋码头拉远白土LHHV</t>
+  </si>
+  <si>
+    <t>黄平县大碾房村白土寨对面山上</t>
+  </si>
+  <si>
+    <t>TDD-LTE</t>
+  </si>
+  <si>
+    <t>宏站</t>
+  </si>
+  <si>
+    <t>新建</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>历史数据，无对应备注信息</t>
+  </si>
+  <si>
+    <t>01dba1b3-9dd8-48f7-b76a-778a3f1967ee</t>
+  </si>
+  <si>
+    <t>镇远县</t>
+  </si>
+  <si>
+    <t>镇远县羊场镇金盆村张家冲组</t>
+  </si>
+  <si>
+    <t>34129</t>
+  </si>
+  <si>
+    <t>980410</t>
+  </si>
+  <si>
+    <t>尚德祥</t>
+  </si>
+  <si>
+    <t>13708551234</t>
+  </si>
+  <si>
+    <t>黔东南分公司/镇远县公司</t>
+  </si>
+  <si>
+    <t>2018-04-28</t>
+  </si>
+  <si>
+    <t>5ZY-羊场金盆张家冲组LHHV</t>
+  </si>
+  <si>
+    <t>共址</t>
+  </si>
+  <si>
+    <t>城区</t>
+  </si>
+  <si>
+    <t>交通</t>
+  </si>
+  <si>
+    <t>0259cb49-3c6d-4f7e-a755-0fadff9b87d4</t>
   </si>
   <si>
     <t>锦屏县茅坪镇阳溪村阿烈</t>
   </si>
   <si>
-    <t>行政村</t>
-  </si>
-  <si>
-    <t>109.23821</t>
-  </si>
-  <si>
-    <t>26.76795)</t>
-  </si>
-  <si>
-    <t>邓千18785185684</t>
+    <t>苏贤刚</t>
+  </si>
+  <si>
+    <t>15985537606</t>
+  </si>
+  <si>
+    <t>5JP-锦屏茅坪阳溪村阿烈LHHV</t>
+  </si>
+  <si>
+    <t>029fbd91-ed31-4605-9b75-55435b00f29b</t>
   </si>
   <si>
     <t>榕江县</t>
   </si>
   <si>
-    <t>曾庆伟13885531781</t>
-  </si>
-  <si>
-    <t>镇远县</t>
-  </si>
-  <si>
-    <t>尚德祥13708551236</t>
+    <t>榕江县寨蒿镇乌公往乃勇山坡上</t>
+  </si>
+  <si>
+    <t>高速</t>
+  </si>
+  <si>
+    <t>曾庆伟</t>
+  </si>
+  <si>
+    <t>13885531781</t>
+  </si>
+  <si>
+    <t>黔东南分公司/榕江县公司</t>
+  </si>
+  <si>
+    <t>5RJ-榕江寨蒿乌公LHHV</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>02a9e2ae-fd8d-48ad-8ac0-c6472ee82148</t>
+  </si>
+  <si>
+    <t>镇远县江古镇白果村梓木平</t>
+  </si>
+  <si>
+    <t>13708551236</t>
+  </si>
+  <si>
+    <t>5ZY-镇远江古梓木坪LHHV</t>
+  </si>
+  <si>
+    <t>02d0db00-2556-402a-994a-7024316fa013</t>
+  </si>
+  <si>
+    <t>镇远县舞阳镇文德社区韭菜坪</t>
+  </si>
+  <si>
+    <t>住宅</t>
+  </si>
+  <si>
+    <t>5ZY-镇远灵角寨拉远韭菜坪LHHV</t>
+  </si>
+  <si>
+    <t>02fa3efb-71db-4fd6-9dd2-031421144557</t>
+  </si>
+  <si>
+    <t>雷山县</t>
+  </si>
+  <si>
+    <t>雷山县大塘镇独南村</t>
+  </si>
+  <si>
+    <t>94843009</t>
+  </si>
+  <si>
+    <t>34264</t>
+  </si>
+  <si>
+    <t>余绍祥</t>
+  </si>
+  <si>
+    <t>15121445090</t>
+  </si>
+  <si>
+    <t>2018-07-09 15:15:22</t>
+  </si>
+  <si>
+    <t>GIONEE;F5;863397033034543</t>
+  </si>
+  <si>
+    <t>5LS-雷山党果</t>
+  </si>
+  <si>
+    <t>雷山县大塘镇党高</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>551356</t>
+  </si>
+  <si>
+    <t>43308</t>
+  </si>
+  <si>
+    <t>0377dc72-b5a1-41b5-8b35-e808c9d2fbc0</t>
+  </si>
+  <si>
+    <t>雷山根敢</t>
+  </si>
+  <si>
+    <t>94464129</t>
+  </si>
+  <si>
+    <t>2018-07-29 10:57:59</t>
+  </si>
+  <si>
+    <t>5LS-雷山西江根敢</t>
+  </si>
+  <si>
+    <t>雷山县西江镇根敢</t>
+  </si>
+  <si>
+    <t>03dc47bc-31ba-4975-9ea0-4fd872abd631</t>
+  </si>
+  <si>
+    <t>从江县</t>
+  </si>
+  <si>
+    <t>宰便镇分耶村污育寨</t>
+  </si>
+  <si>
+    <t>吴谋进</t>
+  </si>
+  <si>
+    <t>15185777985</t>
+  </si>
+  <si>
+    <t>黔东南分公司/从江县公司</t>
+  </si>
+  <si>
+    <t>5CJ-从江宰便污育寨LHHV</t>
+  </si>
+  <si>
+    <t>龙金林</t>
+  </si>
+  <si>
+    <t>15185703316</t>
   </si>
 </sst>
 </file>
@@ -156,7 +432,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -524,15 +799,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:AK10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,154 +856,1091 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
+        <v>49</v>
+      </c>
+      <c r="G2">
+        <v>107.70321800000001</v>
+      </c>
+      <c r="H2">
+        <v>26.986032000000002</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2">
         <v>-110</v>
       </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>52</v>
+      </c>
+      <c r="P2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" t="s">
+        <v>57</v>
+      </c>
+      <c r="U2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="G3">
+        <v>108.26349399999999</v>
+      </c>
+      <c r="H3">
+        <v>27.175494</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3">
+        <v>70</v>
+      </c>
+      <c r="J3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3">
         <v>-110</v>
       </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="O3" t="s">
-        <v>28</v>
+        <v>73</v>
+      </c>
+      <c r="P3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" t="s">
+        <v>76</v>
+      </c>
+      <c r="V3" t="s">
+        <v>69</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <v>109.23821</v>
+      </c>
+      <c r="H4">
+        <v>26.767949999999999</v>
+      </c>
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4">
         <v>-110</v>
       </c>
-      <c r="K4" t="s">
-        <v>24</v>
-      </c>
       <c r="L4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="O4" t="s">
-        <v>28</v>
+        <v>83</v>
+      </c>
+      <c r="P4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R4" t="s">
+        <v>55</v>
+      </c>
+      <c r="S4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V4" t="s">
+        <v>81</v>
+      </c>
+      <c r="W4" t="s">
+        <v>60</v>
+      </c>
+      <c r="X4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="J5">
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5">
+        <v>108.547619</v>
+      </c>
+      <c r="H5">
+        <v>26.222248</v>
+      </c>
+      <c r="I5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5">
         <v>-110</v>
       </c>
-      <c r="K5" t="s">
-        <v>24</v>
-      </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M5" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="N5" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="O5" t="s">
-        <v>28</v>
+        <v>90</v>
+      </c>
+      <c r="P5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R5" t="s">
+        <v>55</v>
+      </c>
+      <c r="S5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T5" t="s">
+        <v>57</v>
+      </c>
+      <c r="U5" t="s">
+        <v>92</v>
+      </c>
+      <c r="V5" t="s">
+        <v>87</v>
+      </c>
+      <c r="W5" t="s">
+        <v>60</v>
+      </c>
+      <c r="X5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6">
+        <v>108.492677</v>
+      </c>
+      <c r="H6">
+        <v>27.229147999999999</v>
+      </c>
+      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6">
+        <v>-110</v>
+      </c>
+      <c r="L6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>96</v>
+      </c>
+      <c r="P6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>54</v>
+      </c>
+      <c r="R6" t="s">
+        <v>55</v>
+      </c>
+      <c r="S6" t="s">
+        <v>56</v>
+      </c>
+      <c r="T6" t="s">
+        <v>57</v>
+      </c>
+      <c r="U6" t="s">
+        <v>97</v>
+      </c>
+      <c r="V6" t="s">
+        <v>95</v>
+      </c>
+      <c r="W6" t="s">
+        <v>60</v>
+      </c>
+      <c r="X6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>108.41560699999999</v>
+      </c>
+      <c r="H7">
+        <v>27.063946000000001</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7">
+        <v>-110</v>
+      </c>
+      <c r="L7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" t="s">
+        <v>55</v>
+      </c>
+      <c r="S7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T7" t="s">
+        <v>57</v>
+      </c>
+      <c r="U7" t="s">
+        <v>101</v>
+      </c>
+      <c r="V7" t="s">
+        <v>99</v>
+      </c>
+      <c r="W7" t="s">
+        <v>60</v>
+      </c>
+      <c r="X7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>108.0761</v>
+      </c>
+      <c r="H8">
+        <v>26.382669</v>
+      </c>
+      <c r="I8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8">
+        <v>-115</v>
+      </c>
+      <c r="L8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>108</v>
+      </c>
+      <c r="P8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>109</v>
+      </c>
+      <c r="R8" t="s">
+        <v>110</v>
+      </c>
+      <c r="S8" t="s">
+        <v>44</v>
+      </c>
+      <c r="T8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8" t="s">
+        <v>111</v>
+      </c>
+      <c r="V8" t="s">
+        <v>112</v>
+      </c>
+      <c r="W8" t="s">
+        <v>60</v>
+      </c>
+      <c r="X8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9">
+        <v>108.074298</v>
+      </c>
+      <c r="H9">
+        <v>26.387592999999999</v>
+      </c>
+      <c r="I9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9">
+        <v>-113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" t="s">
+        <v>108</v>
+      </c>
+      <c r="P9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>119</v>
+      </c>
+      <c r="R9" t="s">
+        <v>110</v>
+      </c>
+      <c r="S9" t="s">
+        <v>44</v>
+      </c>
+      <c r="T9" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" t="s">
+        <v>120</v>
+      </c>
+      <c r="V9" t="s">
+        <v>121</v>
+      </c>
+      <c r="W9" t="s">
+        <v>60</v>
+      </c>
+      <c r="X9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10">
+        <v>108.51759</v>
+      </c>
+      <c r="H10">
+        <v>25.687356000000001</v>
+      </c>
+      <c r="I10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10">
+        <v>-110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" t="s">
+        <v>125</v>
+      </c>
+      <c r="O10" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>54</v>
+      </c>
+      <c r="R10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S10" t="s">
+        <v>56</v>
+      </c>
+      <c r="T10" t="s">
+        <v>57</v>
+      </c>
+      <c r="U10" t="s">
+        <v>128</v>
+      </c>
+      <c r="V10" t="s">
+        <v>124</v>
+      </c>
+      <c r="W10" t="s">
+        <v>60</v>
+      </c>
+      <c r="X10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:AK1230">
+    <sortCondition descending="1" ref="AK1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
